--- a/Output/cuadro2.Empresas_con_sindicato_tamano.xlsx
+++ b/Output/cuadro2.Empresas_con_sindicato_tamano.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,6 +922,74 @@
         <v>2014</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>20374.56648578441</v>
+      </c>
+      <c r="C34">
+        <v>95.01934733259309</v>
+      </c>
+      <c r="D34">
+        <v>0.004641977033988871</v>
+      </c>
+      <c r="E34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>43640.44824045801</v>
+      </c>
+      <c r="C35">
+        <v>1030.429758063137</v>
+      </c>
+      <c r="D35">
+        <v>0.02306714808912531</v>
+      </c>
+      <c r="E35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>8871.998226522564</v>
+      </c>
+      <c r="C36">
+        <v>1916.056733544713</v>
+      </c>
+      <c r="D36">
+        <v>0.1776091001238989</v>
+      </c>
+      <c r="E36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1562.395414645924</v>
+      </c>
+      <c r="C37">
+        <v>1945.754422583905</v>
+      </c>
+      <c r="D37">
+        <v>0.5546383458126031</v>
+      </c>
+      <c r="E37">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
